--- a/00_NonQueue_REFramework/Data/Config.xlsx
+++ b/00_NonQueue_REFramework/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A7622-1584-44F8-AF72-5D132B6EE561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F93370-6B53-4DF0-9F01-4F0E02612FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6360" yWindow="-23355" windowWidth="17895" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,8 +175,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>논리값 (TRUE or FALSE)
-참이면 워크플로 강제 종료</t>
+    <t>작업실패표시여부 (TRUE or FALSE), 기본값으로 FALSE 설정
+참이면 시스템에러 발생시 마지막 처리로 워크플로 강제종료
+※ 초기화 실패시에는 작업실패표시여부와 무관하게 워크플로 강제종료 실시</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -684,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -852,7 +853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33">
+    <row r="17" spans="1:3" ht="49.5">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>

--- a/00_NonQueue_REFramework/Data/Config.xlsx
+++ b/00_NonQueue_REFramework/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F93370-6B53-4DF0-9F01-4F0E02612FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7960B3-5C2C-4FFD-9CCA-A27194C79887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6360" yWindow="-23355" windowWidth="17895" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
   </si>
   <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
     <t>LogMessage_Success</t>
   </si>
   <si>
@@ -95,18 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
@@ -128,9 +113,6 @@
     <t>RetryNumberSetTransactionStatus</t>
   </si>
   <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
   </si>
   <si>
@@ -144,12 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>허용되는 시스템에러 최대설정개수 (0이상의 정수값).
-시스템에러 발생개수가 해당 개수에 도달시 작업 종료.
-※ 이 기능을 비활성화 하려면 0 설정.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>시스템에러 최대설정개수에 도달시 에러 메시지</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,17 +143,59 @@
   </si>
   <si>
     <t>비즈니스 프로세스 이름으로 로그필드에 추가하여 사용</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>재시도 횟수 (0이상의 정수값).
-※ 오케스트레이터 대기열로 작동시 0 설정, 그 외는 1 이상으로 설정</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>작업실패표시여부 (TRUE or FALSE), 기본값으로 FALSE 설정
 참이면 시스템에러 발생시 마지막 처리로 워크플로 강제종료
 ※ 초기화 실패시에는 작업실패표시여부와 무관하게 워크플로 강제종료 실시</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트랜잭션 데이터 추출 에러 발생시 재시도 횟수 (양수값) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>허용되는 시스템에러 최대설정개수 (0이상의 정수값)
+시스템에러 발생개수가 해당 개수에 도달시 작업 종료
+※ 이 기능을 비활성화 하려면 0 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>프로세스 재시도 횟수 (0이상의 정수값)
+※ 오케스트레이터 대기열로 작동시 0 설정, 그 외는 1 이상으로 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 데이터 가져오기 호출)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 데이터 검색시 에러 발생)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 성공)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 비즈니스에러)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 시스템에러)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Process finished due to no more transaction data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogMessage_NoMoreTransactionData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (남은 트랜잭션 데이터 없음)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,42 +654,42 @@
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="49.5">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -732,136 +750,147 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="33">
+    <row r="2" spans="1:26" ht="49.5">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="33">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="49.5">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
       <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="49.5">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8" t="b">
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="49.5">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>46</v>
+      <c r="C18" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/00_NonQueue_REFramework/Data/Config.xlsx
+++ b/00_NonQueue_REFramework/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7960B3-5C2C-4FFD-9CCA-A27194C79887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C258FA-550F-49D8-9295-6E96C08AABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6360" yWindow="-23355" windowWidth="17895" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Exceptions_Screenshots</t>
   </si>
   <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
     <t>LogMessage_GetTransactionData</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
   </si>
   <si>
     <t>ShouldMarkJobAsFaulted</t>
@@ -156,46 +150,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>허용되는 시스템에러 최대설정개수 (0이상의 정수값)
-시스템에러 발생개수가 해당 개수에 도달시 작업 종료
+    <t>로그 메시지 (트랜잭션 데이터 가져오기 호출)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 데이터 검색시 에러 발생)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 성공)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 비즈니스에러)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 시스템에러)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Process finished due to no more transaction data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogMessage_NoMoreTransactionData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>로그 메시지 (남은 트랜잭션 데이터 없음)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 상태 설정 에러시 재시도 횟수 (양수값)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>허용되는 시스템에러 최대설정개수 (활성화 하려면 양수값 설정)
+시스템에러 발생 횟수가 최대설정개수에 도달시 작업 종료
 ※ 이 기능을 비활성화 하려면 0 설정</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>프로세스 재시도 횟수 (0이상의 정수값)
+    <t>시스템에러시 스크린샷 캡처 이미지 저장 폴더 경로</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 재시도 횟수 (0이상의 정수값)
+시스템에러 발생시에만 해당 트랜잭션에 대해서 재시도 실시
 ※ 오케스트레이터 대기열로 작동시 0 설정, 그 외는 1 이상으로 설정</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (트랜잭션 데이터 가져오기 호출)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (트랜잭션 데이터 검색시 에러 발생)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (트랜잭션 처리 프로세스 성공)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 비즈니스에러)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (트랜잭션 처리 프로세스 실패, 시스템에러)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Process finished due to no more transaction data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LogMessage_NoMoreTransactionData</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>로그 메시지 (남은 트랜잭션 데이터 없음)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -654,42 +657,42 @@
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="49.5">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -752,16 +755,16 @@
     </row>
     <row r="2" spans="1:26" ht="49.5">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="49.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -769,128 +772,128 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="49.5">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8" t="b">
+      <c r="B17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>38</v>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/00_NonQueue_REFramework/Data/Config.xlsx
+++ b/00_NonQueue_REFramework/Data/Config.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C258FA-550F-49D8-9295-6E96C08AABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05842C-D9A5-4B3C-B388-3D148BBBE16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6360" yWindow="-23355" windowWidth="17895" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6615" yWindow="-22845" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
@@ -116,23 +113,11 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Data\input\samleData.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>시스템에러 최대설정개수에 도달시 에러 메시지</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>프로세스 이름</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>트랜잭션 항목이 DataRow인 경우 트랜잭션정보를 가지고 있는 엑셀 파일</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DataFilePath</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -199,6 +184,44 @@
     <t>트랜잭션 재시도 횟수 (0이상의 정수값)
 시스템에러 발생시에만 해당 트랜잭션에 대해서 재시도 실시
 ※ 오케스트레이터 대기열로 작동시 0 설정, 그 외는 1 이상으로 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseQueue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>오케스트레이터의 큐아이템 사용 여부 (TRUE or FALSE)
+트랜잭션 소스로 사용되는 데이터의 종류 (오케스트레이터의 큐, 스프레드시트, 데이터베이스, 사서함, 웹API) 중에서 큐 이외의 자료를 사용시에는 FALSE 설정</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>트랜잭션 소스로 사용되는 데이터가 스프레드시트인 경우의 데이터 파일</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data\input\TransactionData.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>스프레드시트의 시트명 (트랜잭션 데이터)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TransactionFilePath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TransactionFileSheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OrchestratorQueueFolder
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -206,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,15 +251,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -271,26 +285,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,16 +619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="43" style="8" customWidth="1"/>
+    <col min="2" max="2" width="43" style="5" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="4" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="4" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="4"/>
@@ -655,44 +668,64 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="49.5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:26" ht="49.5">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
+    </row>
+    <row r="4" spans="1:26" ht="49.5">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -706,14 +739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="41" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51" style="8" customWidth="1"/>
+    <col min="2" max="2" width="51" style="5" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" style="4" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="4" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="4"/>
@@ -755,145 +788,145 @@
     </row>
     <row r="2" spans="1:26" ht="49.5">
       <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>47</v>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="49.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>49</v>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.5">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="b">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>36</v>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +941,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
